--- a/results/ejercicio2.xlsx
+++ b/results/ejercicio2.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2564857595074893</v>
+        <v>0.2564857595068418</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1589439657213519</v>
+        <v>0.158943965723677</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2921547041323954</v>
+        <v>0.2920350876630113</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1991975054362458</v>
+        <v>0.1991173787737204</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2952788100462375</v>
+        <v>0.29526071091122</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2911443286393958</v>
+        <v>0.2911332986410671</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1982508680362743</v>
+        <v>0.198237677006421</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2345818352324663</v>
+        <v>0.2347069814647371</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>

--- a/results/ejercicio2.xlsx
+++ b/results/ejercicio2.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2564857595068418</v>
+        <v>0.109029252404279</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.158943965723677</v>
+        <v>0.07476217823650765</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2920350876630113</v>
+        <v>0.176267729111987</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1991173787737204</v>
+        <v>0.09612066273305153</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.29526071091122</v>
+        <v>0.1691909686138251</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2911332986410671</v>
+        <v>0.1777097446305805</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.198237677006421</v>
+        <v>0.09585285992210585</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2347069814647371</v>
+        <v>0.1473826792247265</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
